--- a/Assistants/Duties_Info.xlsx
+++ b/Assistants/Duties_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Google_Drive\Academic\UWindsor\Course\COMP3150_DBMS\F2022_Hossein_Fani\Assistants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6312CB2C-127D-4A62-AB50-EF21F71EE627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218B919E-62F1-454A-A2BB-5649CBA46692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C32AA88-CB60-44B0-A959-D17D6FFE0192}"/>
   </bookViews>
@@ -228,49 +228,46 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
       <t xml:space="preserve">0. Find the students' lab submissions after the submission deadline on </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Wednesday 11:59 PM Eastern time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Mark submissions for assigned section
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t xml:space="preserve">Wednesday 11:59 PM Eastern time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t xml:space="preserve">1. Mark submissions for assigned section
 1.1. The submission MUST be checked for running without error. For each part of the submission, write a detailed explanation why the deduction happens (in bb, not inside the submission files). </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
       </rPr>
       <t>Simply put the deduction is NOT enough</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -278,20 +275,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
       </rPr>
       <t>This is mandatory</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
       </rPr>
       <t xml:space="preserve">.
 1.2. For late submission, put a comment </t>
@@ -300,10 +293,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
       </rPr>
       <t xml:space="preserve">"Late Submission"! Just leave 0! 
 </t>
@@ -311,10 +302,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
       </rPr>
       <t xml:space="preserve">2. The marks MUST be ready by next Friday eastern time. </t>
     </r>
@@ -322,45 +311,37 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>This is a HARD deadline.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Marking MUST be blind. Instead of your name </t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t xml:space="preserve">This is a HARD deadline.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t xml:space="preserve">3. Marking MUST be blind. Instead of your name </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>put the Lab Instructor name.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-4. In case of appeal, refer to the Lab Instructor.</t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t xml:space="preserve">put the Lab Instructor name.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>4. In case of appeal, refer to the Lab Instructor.</t>
     </r>
   </si>
   <si>
@@ -600,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +642,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
     </font>
   </fonts>
   <fills count="5">
@@ -750,9 +742,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -805,6 +794,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1428,152 +1420,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90F77D-24DA-4093-923B-91E32C079022}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="83" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="18.140625" style="7"/>
+    <col min="1" max="1" width="21" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="83" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="18.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="24"/>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>110057384</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>140</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>110106214</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>140</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>110017199</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>100</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>105009421</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>100</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1581,7 +1571,7 @@
       <c r="C8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1604,7 +1594,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,55 +1606,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1678,21 +1668,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100629F52BD7A8CB0489035B85AC7EDFBA2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3d70325b7b4dea4f962e45496877bebf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="93a39aae-0c10-44f4-bcca-ab93ec7b7056" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21eb934b69573e8a55735126159b9760" ns2:_="">
     <xsd:import namespace="93a39aae-0c10-44f4-bcca-ab93ec7b7056"/>
@@ -1824,31 +1799,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6613811F-E7F2-4F0C-86B9-5CC1965DCE0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51F09107-E06C-4F36-AF05-7455D6286771}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="93a39aae-0c10-44f4-bcca-ab93ec7b7056"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4538749-1078-48DE-9DC6-5CA94318747E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1864,4 +1830,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6613811F-E7F2-4F0C-86B9-5CC1965DCE0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51F09107-E06C-4F36-AF05-7455D6286771}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>